--- a/Reference Notes/002 Budget.xlsx
+++ b/Reference Notes/002 Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42f364afe123e12d/Ymisk papírir/Niklas'sPengetips/Reference Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-projects\Tid-Frihed-Penge\Reference Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1779" documentId="13_ncr:1_{482E5F4A-CC18-4E96-ABEE-141D2E51C8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FD2BA2-A419-47B2-8297-7E144DEEAAB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D31F0-DDBA-49D2-BFCA-0D54C4373D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Økonomi 2022 sep-dec" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -388,8 +388,8 @@
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;kr.&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;kr.&quot;_-;\-* #,##0\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#.##0.00\ &quot;kr.&quot;"/>
-    <numFmt numFmtId="169" formatCode="#.##\ &quot;kr.&quot;"/>
-    <numFmt numFmtId="176" formatCode="#\ &quot;kr.&quot;"/>
+    <numFmt numFmtId="168" formatCode="#.##\ &quot;kr.&quot;"/>
+    <numFmt numFmtId="169" formatCode="#\ &quot;kr.&quot;"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1514,9 +1514,9 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1609,7 +1609,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1619,6 +1619,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,9 +1666,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2441,7 +2441,7 @@
                   <c:v>6614.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>671.0958333333333</c:v>
+                  <c:v>695.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>218</c:v>
@@ -3199,10 +3199,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3403,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FCCB84-8BE1-41C8-B1B7-D933F06EAB58}">
   <dimension ref="B2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:F64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3427,22 +3423,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="209"/>
-      <c r="K2" s="210" t="s">
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="211"/>
+      <c r="K2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="212"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
     </row>
     <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="84" t="s">
@@ -3504,7 +3500,7 @@
       </c>
       <c r="H4" s="93">
         <f>G4/$G$48</f>
-        <v>0.30835906111128614</v>
+        <v>0.30797665755493636</v>
       </c>
       <c r="K4" s="94">
         <v>12</v>
@@ -3536,16 +3532,15 @@
         <v>19</v>
       </c>
       <c r="F5" s="98">
-        <f>460+18</f>
-        <v>478</v>
+        <v>766.89</v>
       </c>
       <c r="G5" s="98">
         <f t="shared" si="0"/>
-        <v>478</v>
+        <v>766.89</v>
       </c>
       <c r="H5" s="93">
         <f t="shared" ref="H5:H46" si="2">G5/$G$48</f>
-        <v>2.0544686046036344E-3</v>
+        <v>3.2920450807860115E-3</v>
       </c>
       <c r="K5" s="4">
         <v>12</v>
@@ -3586,7 +3581,7 @@
       </c>
       <c r="H6" s="93">
         <f t="shared" si="2"/>
-        <v>2.5659367300175095E-3</v>
+        <v>2.5627546495967466E-3</v>
       </c>
       <c r="K6" s="4">
         <v>12</v>
@@ -3626,7 +3621,7 @@
       </c>
       <c r="H7" s="93">
         <f t="shared" si="2"/>
-        <v>1.2494435635110386E-2</v>
+        <v>1.2478940982207273E-2</v>
       </c>
       <c r="K7" s="4">
         <v>12</v>
@@ -3666,7 +3661,7 @@
       </c>
       <c r="H8" s="93">
         <f t="shared" si="2"/>
-        <v>1.8911426485891194E-2</v>
+        <v>1.8887973966877192E-2</v>
       </c>
       <c r="K8" s="18">
         <v>12</v>
@@ -3706,7 +3701,7 @@
       </c>
       <c r="H9" s="93">
         <f t="shared" si="2"/>
-        <v>8.5961029481323612E-4</v>
+        <v>8.5854427122169065E-4</v>
       </c>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -3737,7 +3732,7 @@
       </c>
       <c r="H10" s="93">
         <f t="shared" si="2"/>
-        <v>1.6313254369818189E-2</v>
+        <v>1.6293023907109634E-2</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="81"/>
@@ -3768,7 +3763,7 @@
       </c>
       <c r="H11" s="93">
         <f t="shared" si="2"/>
-        <v>4.2980514740661802E-3</v>
+        <v>4.2927213561084528E-3</v>
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
@@ -3799,7 +3794,7 @@
       </c>
       <c r="H12" s="93">
         <f t="shared" si="2"/>
-        <v>6.6533836818544476E-3</v>
+        <v>6.6451326592558849E-3</v>
       </c>
       <c r="K12" s="115"/>
       <c r="L12" s="116" t="s">
@@ -3832,7 +3827,7 @@
       </c>
       <c r="H13" s="93">
         <f t="shared" si="2"/>
-        <v>4.0745527974147388E-3</v>
+        <v>4.0694998455908134E-3</v>
       </c>
       <c r="K13" s="99"/>
       <c r="L13" s="102" t="s">
@@ -3868,7 +3863,7 @@
       </c>
       <c r="H14" s="93">
         <f t="shared" si="2"/>
-        <v>2.0114880898629726E-3</v>
+        <v>2.008993594658756E-3</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -3892,14 +3887,14 @@
       </c>
       <c r="H15" s="93">
         <f t="shared" si="2"/>
-        <v>4.1132352606813348E-3</v>
-      </c>
-      <c r="K15" s="205" t="s">
+        <v>4.1081343377957899E-3</v>
+      </c>
+      <c r="K15" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="213"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
+      <c r="N15" s="215"/>
     </row>
     <row r="16" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="178"/>
@@ -3962,11 +3957,11 @@
       <c r="L18" s="14"/>
       <c r="M18" s="68">
         <f>G47</f>
-        <v>19388.630833333333</v>
+        <v>19412.704999999998</v>
       </c>
       <c r="N18" s="69">
         <f t="shared" ref="N18" si="7">M18*12</f>
-        <v>232663.57</v>
+        <v>232952.45999999996</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3986,11 +3981,11 @@
       <c r="L19" s="130"/>
       <c r="M19" s="131">
         <f>M17-M18</f>
-        <v>24191.369166666667</v>
+        <v>24167.295000000002</v>
       </c>
       <c r="N19" s="131">
         <f>N17-N18</f>
-        <v>290296.43</v>
+        <v>290007.54000000004</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.35">
@@ -4015,17 +4010,17 @@
       </c>
       <c r="H20" s="93">
         <f t="shared" si="2"/>
-        <v>3.2607167508003077E-3</v>
+        <v>3.2566730568116776E-3</v>
       </c>
       <c r="K20" s="128" t="s">
         <v>44</v>
       </c>
       <c r="L20" s="128"/>
-      <c r="M20" s="214">
+      <c r="M20" s="216">
         <f>M19/M17*100%</f>
-        <v>0.55510255086431082</v>
-      </c>
-      <c r="N20" s="214"/>
+        <v>0.5545501376778339</v>
+      </c>
+      <c r="N20" s="216"/>
     </row>
     <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="178"/>
@@ -4047,7 +4042,7 @@
       </c>
       <c r="H21" s="93">
         <f t="shared" si="2"/>
-        <v>5.6218513280785641E-3</v>
+        <v>5.6148795337898566E-3</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4070,7 +4065,7 @@
       </c>
       <c r="H22" s="93">
         <f t="shared" si="2"/>
-        <v>2.1490257370330901E-3</v>
+        <v>2.1463606780542264E-3</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -4093,16 +4088,16 @@
       </c>
       <c r="H23" s="93">
         <f t="shared" si="2"/>
-        <v>6.7221525054395066E-3</v>
-      </c>
-      <c r="K23" s="205" t="s">
+        <v>6.7138162009536201E-3</v>
+      </c>
+      <c r="K23" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="206"/>
-      <c r="M23" s="206"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="208"/>
       <c r="N23" s="132">
         <f>M19</f>
-        <v>24191.369166666667</v>
+        <v>24167.295000000002</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4125,7 +4120,7 @@
       </c>
       <c r="H24" s="93">
         <f t="shared" si="2"/>
-        <v>1.5111948982816691E-2</v>
+        <v>1.5093208288077321E-2</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="71"/>
@@ -4156,7 +4151,7 @@
       </c>
       <c r="H25" s="93">
         <f t="shared" si="2"/>
-        <v>2.4086280460666874E-2</v>
+        <v>2.4056410479631772E-2</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>53</v>
@@ -4190,7 +4185,7 @@
       </c>
       <c r="H26" s="93">
         <f t="shared" si="2"/>
-        <v>1.0212170302381245E-2</v>
+        <v>1.0199505942113685E-2</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>55</v>
@@ -4198,11 +4193,11 @@
       <c r="L26" s="1"/>
       <c r="M26" s="63">
         <f>N23-M25-M27</f>
-        <v>17191.369166666667</v>
+        <v>17167.295000000002</v>
       </c>
       <c r="N26" s="63">
         <f t="shared" ref="N26:N27" si="9">M26*12</f>
-        <v>206296.43</v>
+        <v>206007.54000000004</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4282,7 +4277,7 @@
       </c>
       <c r="H30" s="93">
         <f t="shared" si="2"/>
-        <v>3.6963242676969154E-3</v>
+        <v>3.6917403662532697E-3</v>
       </c>
       <c r="K30" s="128"/>
       <c r="L30" s="128"/>
@@ -4309,7 +4304,7 @@
       </c>
       <c r="H31" s="93">
         <f t="shared" si="2"/>
-        <v>1.3564650452152865E-2</v>
+        <v>1.3547828599878279E-2</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -4332,14 +4327,14 @@
       </c>
       <c r="H32" s="93">
         <f t="shared" si="2"/>
-        <v>5.6218513280785641E-3</v>
-      </c>
-      <c r="K32" s="202" t="s">
+        <v>5.6148795337898566E-3</v>
+      </c>
+      <c r="K32" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="204"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="206"/>
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4362,7 +4357,7 @@
       </c>
       <c r="H33" s="93">
         <f t="shared" si="2"/>
-        <v>5.3725643425827252E-4</v>
+        <v>5.365901695135566E-4</v>
       </c>
       <c r="K33" s="188"/>
       <c r="L33" s="189" t="s">
@@ -4396,22 +4391,22 @@
       </c>
       <c r="H34" s="93">
         <f t="shared" si="2"/>
-        <v>1.5111948982816691E-2</v>
+        <v>1.5093208288077321E-2</v>
       </c>
       <c r="K34" s="191" t="s">
         <v>97</v>
       </c>
       <c r="L34" s="74">
         <f>M34/2</f>
-        <v>5067.2529166666664</v>
+        <v>5079.29</v>
       </c>
       <c r="M34" s="74">
         <f>SUM(G4:G38)/12</f>
-        <v>10134.505833333333</v>
+        <v>10158.58</v>
       </c>
       <c r="N34" s="73">
         <f>M34*12</f>
-        <v>121614.06999999999</v>
+        <v>121902.95999999999</v>
       </c>
       <c r="O34" s="140"/>
     </row>
@@ -4435,7 +4430,7 @@
       </c>
       <c r="H35" s="93">
         <f t="shared" si="2"/>
-        <v>2.4086280460666874E-2</v>
+        <v>2.4056410479631772E-2</v>
       </c>
       <c r="K35" s="192" t="s">
         <v>95</v>
@@ -4474,7 +4469,7 @@
       </c>
       <c r="H36" s="93">
         <f t="shared" si="2"/>
-        <v>1.0212170302381245E-2</v>
+        <v>1.0199505942113685E-2</v>
       </c>
       <c r="K36" s="192" t="s">
         <v>96</v>
@@ -4571,7 +4566,7 @@
       </c>
       <c r="H39" s="93">
         <f t="shared" si="2"/>
-        <v>5.1576617688794166E-2</v>
+        <v>5.1512656273301434E-2</v>
       </c>
       <c r="K39" s="193" t="s">
         <v>101</v>
@@ -4610,7 +4605,7 @@
       </c>
       <c r="H40" s="93">
         <f t="shared" si="2"/>
-        <v>0.15472985306638251</v>
+        <v>0.15453796881990431</v>
       </c>
       <c r="K40" s="143" t="s">
         <v>64</v>
@@ -4618,11 +4613,11 @@
       <c r="L40" s="72"/>
       <c r="M40" s="142">
         <f>SUM(M34:M39)</f>
-        <v>26388.630833333333</v>
+        <v>26412.705000000002</v>
       </c>
       <c r="N40" s="144">
         <f>M40*12</f>
-        <v>316663.57</v>
+        <v>316952.46000000002</v>
       </c>
       <c r="O40" s="141"/>
     </row>
@@ -4646,7 +4641,7 @@
       </c>
       <c r="H41" s="93">
         <f t="shared" si="2"/>
-        <v>0.12894154422198542</v>
+        <v>0.1287816406832536</v>
       </c>
     </row>
     <row r="42" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4669,7 +4664,7 @@
       </c>
       <c r="H42" s="93">
         <f t="shared" si="2"/>
-        <v>0.12894154422198542</v>
+        <v>0.1287816406832536</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4692,7 +4687,7 @@
       </c>
       <c r="H43" s="93">
         <f t="shared" si="2"/>
-        <v>3.4384411792529445E-3</v>
+        <v>3.4341770848867626E-3</v>
       </c>
     </row>
     <row r="44" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4715,7 +4710,7 @@
       </c>
       <c r="H44" s="93">
         <f t="shared" si="2"/>
-        <v>8.5961029481323604E-3</v>
+        <v>8.5854427122169057E-3</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -4739,7 +4734,7 @@
       </c>
       <c r="H45" s="93">
         <f t="shared" si="2"/>
-        <v>1.072363842779512E-3</v>
+        <v>1.071033978349059E-3</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4770,7 +4765,7 @@
       <c r="F47" s="107"/>
       <c r="G47" s="185">
         <f>SUM(G4:G46)/12</f>
-        <v>19388.630833333333</v>
+        <v>19412.704999999998</v>
       </c>
       <c r="H47" s="109"/>
       <c r="K47" s="127"/>
@@ -4787,11 +4782,11 @@
       <c r="F48" s="111"/>
       <c r="G48" s="185">
         <f>G47*12</f>
-        <v>232663.57</v>
+        <v>232952.45999999996</v>
       </c>
       <c r="H48" s="113">
         <f>SUM(H4:H46)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K48" s="127"/>
       <c r="L48" s="127"/>
@@ -4819,7 +4814,7 @@
       <c r="F50" s="145"/>
       <c r="G50" s="186">
         <f>G48*25</f>
-        <v>5816589.25</v>
+        <v>5823811.4999999991</v>
       </c>
       <c r="H50" s="127"/>
       <c r="K50" s="127"/>
@@ -4888,7 +4883,7 @@
       <c r="E54" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="219" cm="1">
+      <c r="F54" s="203" cm="1">
         <f t="array" ref="F54">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E54))/12</f>
         <v>329.66666666666669</v>
       </c>
@@ -4898,7 +4893,7 @@
       </c>
       <c r="H54" s="137">
         <f>F54/$G$47</f>
-        <v>1.7003091631405811E-2</v>
+        <v>1.6982005684765041E-2</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -4912,7 +4907,7 @@
       <c r="E55" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="219" cm="1">
+      <c r="F55" s="203" cm="1">
         <f t="array" ref="F55">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E55))/12</f>
         <v>6614.66</v>
       </c>
@@ -4922,7 +4917,7 @@
       </c>
       <c r="H55" s="138">
         <f t="shared" ref="H55:H64" si="16">F55/$G$47</f>
-        <v>0.34116178996135921</v>
+        <v>0.34073870694475605</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -4936,17 +4931,17 @@
       <c r="E56" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="219" cm="1">
+      <c r="F56" s="203" cm="1">
         <f t="array" ref="F56">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E56))/12</f>
-        <v>671.0958333333333</v>
+        <v>695.17</v>
       </c>
       <c r="G56" s="136">
         <f t="shared" si="15"/>
-        <v>8053.15</v>
+        <v>8342.0399999999991</v>
       </c>
       <c r="H56" s="138">
         <f t="shared" si="16"/>
-        <v>3.461285322837606E-2</v>
+        <v>3.5810053261510953E-2</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -4959,7 +4954,7 @@
       <c r="E57" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="219" cm="1">
+      <c r="F57" s="203" cm="1">
         <f t="array" ref="F57">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E57))/12</f>
         <v>218</v>
       </c>
@@ -4969,7 +4964,7 @@
       </c>
       <c r="H57" s="138">
         <f t="shared" si="16"/>
-        <v>1.1243702656157128E-2</v>
+        <v>1.1229759067579713E-2</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -4982,7 +4977,7 @@
       <c r="E58" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="219" cm="1">
+      <c r="F58" s="203" cm="1">
         <f t="array" ref="F58">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E58))/12</f>
         <v>2683.875</v>
       </c>
@@ -4992,7 +4987,7 @@
       </c>
       <c r="H58" s="138">
         <f t="shared" si="16"/>
-        <v>0.13842519479951246</v>
+        <v>0.13825353035550689</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -5003,7 +4998,7 @@
       <c r="E59" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="219" cm="1">
+      <c r="F59" s="203" cm="1">
         <f t="array" ref="F59">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E59))/12</f>
         <v>562.66666666666663</v>
       </c>
@@ -5013,14 +5008,14 @@
       </c>
       <c r="H59" s="138">
         <f t="shared" si="16"/>
-        <v>2.9020443552894851E-2</v>
+        <v>2.8984454596444272E-2</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E60" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="219" cm="1">
+      <c r="F60" s="203" cm="1">
         <f t="array" ref="F60">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E60))/12</f>
         <v>247</v>
       </c>
@@ -5030,14 +5025,14 @@
       </c>
       <c r="H60" s="138">
         <f t="shared" si="16"/>
-        <v>1.2739424569132159E-2</v>
+        <v>1.2723626099505454E-2</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E61" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="219" cm="1">
+      <c r="F61" s="203" cm="1">
         <f t="array" ref="F61">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E61))/12</f>
         <v>2500</v>
       </c>
@@ -5047,14 +5042,14 @@
       </c>
       <c r="H61" s="138">
         <f t="shared" si="16"/>
-        <v>0.12894154422198542</v>
+        <v>0.1287816406832536</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E62" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="219" cm="1">
+      <c r="F62" s="203" cm="1">
         <f t="array" ref="F62">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E62))/12</f>
         <v>627.66666666666663</v>
       </c>
@@ -5064,14 +5059,14 @@
       </c>
       <c r="H62" s="138">
         <f t="shared" si="16"/>
-        <v>3.2372923702666472E-2</v>
+        <v>3.2332777254208862E-2</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E63" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="219" cm="1">
+      <c r="F63" s="203" cm="1">
         <f t="array" ref="F63">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E63))/12</f>
         <v>934</v>
       </c>
@@ -5081,14 +5076,14 @@
       </c>
       <c r="H63" s="138">
         <f t="shared" si="16"/>
-        <v>4.8172560921333756E-2</v>
+        <v>4.8112820959263537E-2</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E64" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="219" cm="1">
+      <c r="F64" s="203" cm="1">
         <f t="array" ref="F64">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E64))/12</f>
         <v>4000</v>
       </c>
@@ -5098,7 +5093,7 @@
       </c>
       <c r="H64" s="138">
         <f t="shared" si="16"/>
-        <v>0.20630647075517666</v>
+        <v>0.20605062509320574</v>
       </c>
     </row>
     <row r="65" spans="5:8" ht="15" x14ac:dyDescent="0.25">
@@ -5108,7 +5103,7 @@
       <c r="F65" s="107"/>
       <c r="G65" s="108">
         <f>(SUM(G54:G64)/12)</f>
-        <v>19388.630833333333</v>
+        <v>19412.704999999998</v>
       </c>
       <c r="H65" s="138"/>
     </row>
@@ -5119,11 +5114,11 @@
       <c r="F66" s="111"/>
       <c r="G66" s="112">
         <f>G65*12</f>
-        <v>232663.57</v>
+        <v>232952.45999999996</v>
       </c>
       <c r="H66" s="139">
         <f>SUM(H54:H64)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="68" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5154,11 +5149,11 @@
         <f t="array" ref="E71:E74">_xlfn._xlws.FILTER($E$4:$E$45,$D$4:$D$45=E58)</f>
         <v>Parkeringslicens</v>
       </c>
-      <c r="F71" s="218">
+      <c r="F71" s="202">
         <f>G71/12</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G71" s="218" cm="1">
+      <c r="G71" s="202" cm="1">
         <f t="array" ref="G71:G74">_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E58)</f>
         <v>1000</v>
       </c>
@@ -5171,11 +5166,11 @@
       <c r="E72" s="99" t="str">
         <v>Ida/Tryg Bilpleje</v>
       </c>
-      <c r="F72" s="218">
+      <c r="F72" s="202">
         <f t="shared" ref="F72:F74" si="17">G72/12</f>
         <v>79.75</v>
       </c>
-      <c r="G72" s="218">
+      <c r="G72" s="202">
         <v>957</v>
       </c>
       <c r="H72" s="137">
@@ -5187,11 +5182,11 @@
       <c r="E73" s="99" t="str">
         <v>Benzin</v>
       </c>
-      <c r="F73" s="218">
+      <c r="F73" s="202">
         <f t="shared" si="17"/>
         <v>2500</v>
       </c>
-      <c r="G73" s="218">
+      <c r="G73" s="202">
         <v>30000</v>
       </c>
       <c r="H73" s="137">
@@ -5203,11 +5198,11 @@
       <c r="E74" s="99" t="str">
         <v>Servicesyn</v>
       </c>
-      <c r="F74" s="218">
+      <c r="F74" s="202">
         <f t="shared" si="17"/>
         <v>20.791666666666668</v>
       </c>
-      <c r="G74" s="218">
+      <c r="G74" s="202">
         <v>249.5</v>
       </c>
       <c r="H74" s="137">
@@ -5433,29 +5428,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="216" t="s">
+      <c r="G2" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="216" t="s">
+      <c r="M2" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -6160,29 +6155,29 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="217" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="215" t="s">
+      <c r="G19" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="215"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="215" t="s">
+      <c r="M19" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="215"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="217"/>
+      <c r="Q19" s="217"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -6468,27 +6463,27 @@
       <c r="P27" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="G29" s="215" t="s">
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="G29" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="215"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="215"/>
-      <c r="M29" s="215" t="s">
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="217"/>
+      <c r="M29" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="N29" s="215"/>
-      <c r="O29" s="215"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="215"/>
+      <c r="N29" s="217"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="217"/>
+      <c r="Q29" s="217"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -6840,29 +6835,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="216" t="s">
+      <c r="G2" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="216" t="s">
+      <c r="M2" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -7549,29 +7544,29 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="217" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="215" t="s">
+      <c r="G19" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="215"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="215" t="s">
+      <c r="M19" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="215"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="217"/>
+      <c r="Q19" s="217"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -7874,27 +7869,27 @@
       <c r="P27" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="G29" s="215" t="s">
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="G29" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="215"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="215"/>
-      <c r="M29" s="215" t="s">
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="217"/>
+      <c r="M29" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="N29" s="215"/>
-      <c r="O29" s="215"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="215"/>
+      <c r="N29" s="217"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="217"/>
+      <c r="Q29" s="217"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>

--- a/Reference Notes/002 Budget.xlsx
+++ b/Reference Notes/002 Budget.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-projects\Tid-Frihed-Penge\Reference Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37510DD4-FD85-4391-BC88-04A9B57DA55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64358D4C-7B46-4052-B0C8-066D456B24C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Økonomi 2023" sheetId="7" r:id="rId1"/>
-    <sheet name="Økonomi 2022 sep-dec" sheetId="5" r:id="rId2"/>
-    <sheet name="Økonomi 2022 jan-sep" sheetId="2" r:id="rId3"/>
-    <sheet name="Økonomi 2021" sheetId="1" r:id="rId4"/>
+    <sheet name="Økonomi 2023 jun-dec" sheetId="8" r:id="rId1"/>
+    <sheet name="Økonomi 2023 jan-maj" sheetId="7" r:id="rId2"/>
+    <sheet name="Økonomi 2022 sep-dec" sheetId="5" r:id="rId3"/>
+    <sheet name="Økonomi 2022 jan-sep" sheetId="2" r:id="rId4"/>
+    <sheet name="Økonomi 2021" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="129">
   <si>
     <t>Udgifter 💸</t>
   </si>
@@ -379,6 +380,72 @@
   <si>
     <t>Skattimus</t>
   </si>
+  <si>
+    <t>Årligt Tryg GPS abonnement</t>
+  </si>
+  <si>
+    <t>Gomore</t>
+  </si>
+  <si>
+    <t>Teejet</t>
+  </si>
+  <si>
+    <t>Stofa Internet (Teejet)</t>
+  </si>
+  <si>
+    <t>Benzin (køre til Aabybro)</t>
+  </si>
+  <si>
+    <t>Aalborg-Aabybro km:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ture om md: </t>
+  </si>
+  <si>
+    <t>I alt km tur-retur:</t>
+  </si>
+  <si>
+    <t>Km at køre til Teejet</t>
+  </si>
+  <si>
+    <t>I alt:</t>
+  </si>
+  <si>
+    <t>Benzin (kr) i november:</t>
+  </si>
+  <si>
+    <t>Km penge at køre til Grundfos</t>
+  </si>
+  <si>
+    <t>Investerings beløb:</t>
+  </si>
+  <si>
+    <t>Til konto:</t>
+  </si>
+  <si>
+    <t>Lommepenge konto 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Til overs til Lønkonto 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Til Nordnet kontoer</t>
+  </si>
+  <si>
+    <t>Opsparing/Investering/Lommepenge hver</t>
+  </si>
+  <si>
+    <t>Overskud/Indægt</t>
+  </si>
+  <si>
+    <t>Teejet Bonus, 12%, 45% udbetalt</t>
+  </si>
+  <si>
+    <t>Til Skat:</t>
+  </si>
+  <si>
+    <t>Skattimus:</t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +610,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +623,14 @@
         <bgColor rgb="FF9BC67C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1268,13 +1341,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1635,19 +1754,120 @@
     </xf>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1659,19 +1879,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1681,16 +1910,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1711,6 +1937,901 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Månedlige</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> u</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>dgifter i kategorier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-3800-4951-AD23-78CF53A427DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13242630385487528"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3800-4951-AD23-78CF53A427DB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Økonomi 2023 jan-maj'!$E$54:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Diverse</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bolig</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forsikring</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefoni</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Underholdning</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ferie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fagforening</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A-kasse</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Økonomi 2023 jan-maj'!$F$54:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>#\ "kr."</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>329.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6614.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>695.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2183.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>627.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-3800-4951-AD23-78CF53A427DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2421,7 +3542,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Økonomi 2023'!$E$54:$E$64</c:f>
+              <c:f>'Økonomi 2023 jan-maj'!$E$54:$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2462,7 +3583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Økonomi 2023'!$F$54:$F$64</c:f>
+              <c:f>'Økonomi 2023 jan-maj'!$F$54:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>#\ "kr."</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2479,7 +3600,7 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2683.875</c:v>
+                  <c:v>2183.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>364.66666666666669</c:v>
@@ -2605,7 +3726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3541,6 +4662,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4572,7 +5733,595 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257635</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1279066</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>86968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEBE4E4-776C-4486-B886-205E7057F9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>211347</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>61509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C232457-3067-45F9-8830-FDCBFDF08322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17183100" y="4783494"/>
+          <a:ext cx="6231147" cy="3459990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4664,7 +6413,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4951,11 +6700,2088 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7D5F1A-C5EA-4E6F-BCCE-8BDC04FC22B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B42C5C-F7CA-475B-879B-A9C8A40788E5}">
   <dimension ref="B1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="83"/>
+    <col min="2" max="2" width="17.7109375" style="83" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19" style="83" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="83" customWidth="1"/>
+    <col min="7" max="7" width="19" style="83" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="83" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="83"/>
+    <col min="11" max="11" width="24.42578125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="83" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" style="83" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="83" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="256"/>
+      <c r="K2" s="261" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="269" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="270">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="231">
+        <v>12</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="92">
+        <v>5978.66</v>
+      </c>
+      <c r="G4" s="92">
+        <f t="shared" ref="G4:G9" si="0">C4*F4</f>
+        <v>71743.92</v>
+      </c>
+      <c r="H4" s="93">
+        <f>G4/$G$48</f>
+        <v>0.34024439727675176</v>
+      </c>
+      <c r="K4" s="154">
+        <v>12</v>
+      </c>
+      <c r="L4" s="205" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="206">
+        <v>29000</v>
+      </c>
+      <c r="N4" s="209">
+        <f t="shared" ref="N4:N11" si="1">K4*M4</f>
+        <v>348000</v>
+      </c>
+      <c r="O4" s="117">
+        <f>N4/$N$13</f>
+        <v>0.56951276415573071</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="178"/>
+      <c r="C5" s="232">
+        <v>1</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="98">
+        <v>766.89</v>
+      </c>
+      <c r="G5" s="98">
+        <f t="shared" si="0"/>
+        <v>766.89</v>
+      </c>
+      <c r="H5" s="93">
+        <f t="shared" ref="H5:H46" si="2">G5/$G$48</f>
+        <v>3.6369636037112021E-3</v>
+      </c>
+      <c r="K5" s="99">
+        <v>1</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="210">
+        <f>12*46000*0.12*0.45*(1-O2)</f>
+        <v>17288.640000000003</v>
+      </c>
+      <c r="N5" s="209">
+        <f t="shared" si="1"/>
+        <v>17288.640000000003</v>
+      </c>
+      <c r="O5" s="117">
+        <f t="shared" ref="O5:O11" si="3">N5/$N$13</f>
+        <v>2.8293394123256706E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="178"/>
+      <c r="C6" s="232">
+        <v>1</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="98">
+        <f>579+18</f>
+        <v>597</v>
+      </c>
+      <c r="G6" s="98">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="H6" s="93">
+        <f t="shared" si="2"/>
+        <v>2.8312629861069875E-3</v>
+      </c>
+      <c r="K6" s="207">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="208">
+        <v>140</v>
+      </c>
+      <c r="N6" s="209">
+        <f t="shared" si="1"/>
+        <v>1680</v>
+      </c>
+      <c r="O6" s="117">
+        <f t="shared" si="3"/>
+        <v>2.7493719648897345E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="178"/>
+      <c r="C7" s="232">
+        <v>4</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="98">
+        <v>0</v>
+      </c>
+      <c r="G7" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="55">
+        <v>20200</v>
+      </c>
+      <c r="N7" s="209">
+        <f t="shared" si="1"/>
+        <v>242400</v>
+      </c>
+      <c r="O7" s="117">
+        <f t="shared" si="3"/>
+        <v>0.39669509779123313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="178"/>
+      <c r="C8" s="232">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="98">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="98">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="H8" s="93">
+        <f t="shared" si="2"/>
+        <v>2.086692988085552E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="57">
+        <v>140</v>
+      </c>
+      <c r="N8" s="209">
+        <f t="shared" si="1"/>
+        <v>1680</v>
+      </c>
+      <c r="O8" s="117">
+        <f t="shared" si="3"/>
+        <v>2.7493719648897345E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="178"/>
+      <c r="C9" s="232">
+        <v>1</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="98">
+        <v>200</v>
+      </c>
+      <c r="G9" s="98">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H9" s="93">
+        <f t="shared" si="2"/>
+        <v>9.4849681276615999E-4</v>
+      </c>
+      <c r="K9" s="18">
+        <v>12</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="58">
+        <v>0</v>
+      </c>
+      <c r="N9" s="209">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="178"/>
+      <c r="C10" s="232">
+        <v>1</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="98">
+        <v>3795.5</v>
+      </c>
+      <c r="G10" s="98">
+        <f>C10*F10</f>
+        <v>3795.5</v>
+      </c>
+      <c r="H10" s="93">
+        <f t="shared" si="2"/>
+        <v>1.80000982642698E-2</v>
+      </c>
+      <c r="K10" s="151">
+        <v>12</v>
+      </c>
+      <c r="L10" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="58">
+        <v>0</v>
+      </c>
+      <c r="N10" s="209">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="178"/>
+      <c r="C11" s="232">
+        <v>1</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="95">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="98">
+        <f>C11*F11</f>
+        <v>1000</v>
+      </c>
+      <c r="H11" s="93">
+        <f t="shared" si="2"/>
+        <v>4.7424840638308E-3</v>
+      </c>
+      <c r="K11" s="151"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="56">
+        <v>0</v>
+      </c>
+      <c r="N11" s="156">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="178"/>
+      <c r="C12" s="233">
+        <v>12</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="101">
+        <v>129</v>
+      </c>
+      <c r="G12" s="98">
+        <f>C12*F12</f>
+        <v>1548</v>
+      </c>
+      <c r="H12" s="93">
+        <f t="shared" si="2"/>
+        <v>7.341365330810078E-3</v>
+      </c>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="115"/>
+      <c r="N12" s="124">
+        <f>SUM(N4:N11)/12</f>
+        <v>50920.72</v>
+      </c>
+      <c r="O12" s="118"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="178"/>
+      <c r="C13" s="232">
+        <v>12</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="98">
+        <v>79</v>
+      </c>
+      <c r="G13" s="98">
+        <f t="shared" ref="G13:G16" si="4">C13*F13</f>
+        <v>948</v>
+      </c>
+      <c r="H13" s="93">
+        <f t="shared" si="2"/>
+        <v>4.495874892511598E-3</v>
+      </c>
+      <c r="I13" s="83">
+        <v>119</v>
+      </c>
+      <c r="K13" s="99"/>
+      <c r="L13" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="103"/>
+      <c r="N13" s="125">
+        <f>N12*12</f>
+        <v>611048.64</v>
+      </c>
+      <c r="O13" s="119">
+        <f>SUM(O4:O11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="178"/>
+      <c r="C14" s="234">
+        <v>12</v>
+      </c>
+      <c r="D14" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="48">
+        <v>39</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="H14" s="93">
+        <f t="shared" si="2"/>
+        <v>2.2194825418728145E-3</v>
+      </c>
+      <c r="I14" s="268">
+        <f>F13+F14+F21</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="178"/>
+      <c r="C15" s="235">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="48">
+        <f>12*79+9</f>
+        <v>957</v>
+      </c>
+      <c r="G15" s="48">
+        <f t="shared" si="4"/>
+        <v>957</v>
+      </c>
+      <c r="H15" s="93">
+        <f t="shared" si="2"/>
+        <v>4.538557249086075E-3</v>
+      </c>
+      <c r="K15" s="251" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="252"/>
+      <c r="M15" s="252"/>
+      <c r="N15" s="253"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="178"/>
+      <c r="C16" s="235">
+        <v>1</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="48">
+        <v>0</v>
+      </c>
+      <c r="G16" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="178"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="68">
+        <f>N12</f>
+        <v>50920.72</v>
+      </c>
+      <c r="N17" s="63">
+        <f>M17*12</f>
+        <v>611048.64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="178"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="68">
+        <f>G47</f>
+        <v>17571.663333333334</v>
+      </c>
+      <c r="N18" s="69">
+        <f t="shared" ref="N18" si="5">M18*12</f>
+        <v>210859.96000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="178"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131">
+        <f>M17-M18</f>
+        <v>33349.056666666671</v>
+      </c>
+      <c r="N19" s="131">
+        <f>N17-N18</f>
+        <v>400188.68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="179" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="238">
+        <v>1</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="106">
+        <v>758.65</v>
+      </c>
+      <c r="G20" s="106">
+        <f t="shared" ref="G20:G26" si="6">C20*F20</f>
+        <v>758.65</v>
+      </c>
+      <c r="H20" s="93">
+        <f t="shared" si="2"/>
+        <v>3.5978855350252362E-3</v>
+      </c>
+      <c r="K20" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="229" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="257">
+        <f>M19/M17*100%</f>
+        <v>0.65492115324894606</v>
+      </c>
+      <c r="N20" s="257"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="178"/>
+      <c r="C21" s="232">
+        <v>12</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="98">
+        <v>109</v>
+      </c>
+      <c r="G21" s="98">
+        <f t="shared" si="6"/>
+        <v>1308</v>
+      </c>
+      <c r="H21" s="93">
+        <f t="shared" si="2"/>
+        <v>6.203169155490686E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="178"/>
+      <c r="C22" s="232">
+        <v>1</v>
+      </c>
+      <c r="D22" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="98">
+        <v>500</v>
+      </c>
+      <c r="G22" s="98">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="H22" s="93">
+        <f t="shared" si="2"/>
+        <v>2.3712420319154E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="178"/>
+      <c r="C23" s="232">
+        <v>4</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="98">
+        <v>391</v>
+      </c>
+      <c r="G23" s="98">
+        <f t="shared" si="6"/>
+        <v>1564</v>
+      </c>
+      <c r="H23" s="93">
+        <f t="shared" si="2"/>
+        <v>7.417245075831371E-3</v>
+      </c>
+      <c r="K23" s="251" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="252"/>
+      <c r="M23" s="252"/>
+      <c r="N23" s="253"/>
+    </row>
+    <row r="24" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="178"/>
+      <c r="C24" s="232">
+        <v>12</v>
+      </c>
+      <c r="D24" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="98">
+        <v>293</v>
+      </c>
+      <c r="G24" s="98">
+        <f t="shared" si="6"/>
+        <v>3516</v>
+      </c>
+      <c r="H24" s="93">
+        <f t="shared" si="2"/>
+        <v>1.6674573968429092E-2</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="222" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="178"/>
+      <c r="C25" s="232">
+        <v>12</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="98">
+        <v>467</v>
+      </c>
+      <c r="G25" s="98">
+        <f t="shared" si="6"/>
+        <v>5604</v>
+      </c>
+      <c r="H25" s="93">
+        <f t="shared" si="2"/>
+        <v>2.6576880693707804E-2</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="68">
+        <v>3000</v>
+      </c>
+      <c r="N25" s="67">
+        <f>M25*12</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="178"/>
+      <c r="C26" s="232">
+        <v>12</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="98">
+        <v>198</v>
+      </c>
+      <c r="G26" s="98">
+        <f t="shared" si="6"/>
+        <v>2376</v>
+      </c>
+      <c r="H26" s="93">
+        <f t="shared" si="2"/>
+        <v>1.126814213566198E-2</v>
+      </c>
+      <c r="K26" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="223" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="225">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="224">
+        <f>M26*12</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="178"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="151"/>
+      <c r="L27" s="128"/>
+      <c r="N27" s="63"/>
+    </row>
+    <row r="28" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="178"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="178"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="82"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+    </row>
+    <row r="30" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="180" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="241">
+        <v>1</v>
+      </c>
+      <c r="D30" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="162">
+        <v>860</v>
+      </c>
+      <c r="G30" s="163">
+        <f t="shared" ref="G30:G35" si="7">C30*F30</f>
+        <v>860</v>
+      </c>
+      <c r="H30" s="93">
+        <f t="shared" si="2"/>
+        <v>4.078536294894488E-3</v>
+      </c>
+      <c r="K30" s="227" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="226" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="228">
+        <f>M19-M25-M26</f>
+        <v>29349.056666666671</v>
+      </c>
+      <c r="N30" s="129">
+        <f>M30*12</f>
+        <v>352188.68000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="181"/>
+      <c r="C31" s="232">
+        <v>12</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="98">
+        <v>263</v>
+      </c>
+      <c r="G31" s="164">
+        <f t="shared" si="7"/>
+        <v>3156</v>
+      </c>
+      <c r="H31" s="93">
+        <f t="shared" si="2"/>
+        <v>1.4967279705450004E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="181"/>
+      <c r="C32" s="232">
+        <v>12</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="98">
+        <v>109</v>
+      </c>
+      <c r="G32" s="164">
+        <f t="shared" si="7"/>
+        <v>1308</v>
+      </c>
+      <c r="H32" s="93">
+        <f t="shared" si="2"/>
+        <v>6.203169155490686E-3</v>
+      </c>
+      <c r="K32" s="258" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="259"/>
+      <c r="M32" s="259"/>
+      <c r="N32" s="260"/>
+      <c r="O32" s="76"/>
+    </row>
+    <row r="33" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="181"/>
+      <c r="C33" s="232">
+        <v>1</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="98">
+        <v>125</v>
+      </c>
+      <c r="G33" s="164">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="H33" s="93">
+        <f t="shared" si="2"/>
+        <v>5.9281050797884999E-4</v>
+      </c>
+      <c r="K33" s="188"/>
+      <c r="L33" s="189" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="181"/>
+      <c r="C34" s="232">
+        <v>12</v>
+      </c>
+      <c r="D34" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="98">
+        <v>293</v>
+      </c>
+      <c r="G34" s="164">
+        <f t="shared" si="7"/>
+        <v>3516</v>
+      </c>
+      <c r="H34" s="93">
+        <f t="shared" si="2"/>
+        <v>1.6674573968429092E-2</v>
+      </c>
+      <c r="K34" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="74">
+        <f>M34/2</f>
+        <v>4859.165</v>
+      </c>
+      <c r="M34" s="74">
+        <f>SUM(G4:G38)/12</f>
+        <v>9718.33</v>
+      </c>
+      <c r="N34" s="73">
+        <f>M34*12</f>
+        <v>116619.95999999999</v>
+      </c>
+      <c r="O34" s="140"/>
+    </row>
+    <row r="35" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="181"/>
+      <c r="C35" s="232">
+        <v>12</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="98">
+        <v>467</v>
+      </c>
+      <c r="G35" s="164">
+        <f t="shared" si="7"/>
+        <v>5604</v>
+      </c>
+      <c r="H35" s="93">
+        <f t="shared" si="2"/>
+        <v>2.6576880693707804E-2</v>
+      </c>
+      <c r="K35" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35" s="74">
+        <f>M35</f>
+        <v>1500</v>
+      </c>
+      <c r="M35" s="75">
+        <f>M25/2</f>
+        <v>1500</v>
+      </c>
+      <c r="N35" s="73">
+        <f>M35*12</f>
+        <v>18000</v>
+      </c>
+      <c r="O35" s="140"/>
+    </row>
+    <row r="36" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="181"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="74">
+        <f>M36</f>
+        <v>1500</v>
+      </c>
+      <c r="M36" s="75">
+        <f>M25/2</f>
+        <v>1500</v>
+      </c>
+      <c r="N36" s="73">
+        <f>M36*12</f>
+        <v>18000</v>
+      </c>
+      <c r="O36" s="140"/>
+    </row>
+    <row r="37" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="181"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="192" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" s="74">
+        <f t="shared" ref="L37" si="8">M37/2</f>
+        <v>3926.6666666666665</v>
+      </c>
+      <c r="M37" s="74">
+        <f>SUM(G39:G45)/12</f>
+        <v>7853.333333333333</v>
+      </c>
+      <c r="N37" s="73">
+        <f>M37*12</f>
+        <v>94240</v>
+      </c>
+      <c r="O37" s="140"/>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="182"/>
+      <c r="C38" s="242"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="192" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="74">
+        <f>M38</f>
+        <v>500</v>
+      </c>
+      <c r="M38" s="190">
+        <f>M26/2</f>
+        <v>500</v>
+      </c>
+      <c r="N38" s="73">
+        <f t="shared" ref="N38:N39" si="9">M38*12</f>
+        <v>6000</v>
+      </c>
+      <c r="O38" s="140"/>
+    </row>
+    <row r="39" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="180" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="241">
+        <v>12</v>
+      </c>
+      <c r="D39" s="160" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="161" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="162">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="163">
+        <f>C39*F39</f>
+        <v>12000</v>
+      </c>
+      <c r="H39" s="93">
+        <f t="shared" si="2"/>
+        <v>5.6909808765969599E-2</v>
+      </c>
+      <c r="K39" s="193" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" s="199">
+        <f>M39</f>
+        <v>500</v>
+      </c>
+      <c r="M39" s="194">
+        <f>M26/2</f>
+        <v>500</v>
+      </c>
+      <c r="N39" s="73">
+        <f t="shared" si="9"/>
+        <v>6000</v>
+      </c>
+      <c r="O39" s="140"/>
+    </row>
+    <row r="40" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="181"/>
+      <c r="C40" s="232">
+        <v>12</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="98">
+        <v>3000</v>
+      </c>
+      <c r="G40" s="164">
+        <f>C40*F40</f>
+        <v>36000</v>
+      </c>
+      <c r="H40" s="93">
+        <f t="shared" si="2"/>
+        <v>0.1707294262979088</v>
+      </c>
+      <c r="K40" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="72"/>
+      <c r="M40" s="142">
+        <f>SUM(M34:M39)</f>
+        <v>21571.663333333334</v>
+      </c>
+      <c r="N40" s="144">
+        <f>M40*12</f>
+        <v>258859.96000000002</v>
+      </c>
+      <c r="O40" s="141"/>
+    </row>
+    <row r="41" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="181"/>
+      <c r="C41" s="233">
+        <v>12</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="151" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="101">
+        <f>C65*1.5</f>
+        <v>832.5</v>
+      </c>
+      <c r="G41" s="164">
+        <f>C41*F41</f>
+        <v>9990</v>
+      </c>
+      <c r="H41" s="93">
+        <f t="shared" si="2"/>
+        <v>4.7377415797669693E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="181"/>
+      <c r="C42" s="232">
+        <v>2</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="98">
+        <v>15000</v>
+      </c>
+      <c r="G42" s="164">
+        <f>C42*F42</f>
+        <v>30000</v>
+      </c>
+      <c r="H42" s="93">
+        <f t="shared" si="2"/>
+        <v>0.14227452191492398</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="181"/>
+      <c r="C43" s="239">
+        <v>4</v>
+      </c>
+      <c r="D43" s="153" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="155">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="165">
+        <f>C43*F43</f>
+        <v>4000</v>
+      </c>
+      <c r="H43" s="93">
+        <f t="shared" si="2"/>
+        <v>1.89699362553232E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="181"/>
+      <c r="C44" s="243">
+        <v>2</v>
+      </c>
+      <c r="D44" s="158" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="156">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="166">
+        <f t="shared" ref="G44" si="10">C44*F44</f>
+        <v>2000</v>
+      </c>
+      <c r="H44" s="93">
+        <f t="shared" si="2"/>
+        <v>9.4849681276615999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="181"/>
+      <c r="C45" s="232">
+        <v>1</v>
+      </c>
+      <c r="D45" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="156">
+        <v>250</v>
+      </c>
+      <c r="G45" s="98">
+        <f>C45*F45</f>
+        <v>250</v>
+      </c>
+      <c r="H45" s="93">
+        <f t="shared" si="2"/>
+        <v>1.1856210159577E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="182"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="169">
+        <f>C46*F46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+    </row>
+    <row r="47" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="107"/>
+      <c r="G47" s="185">
+        <f>SUM(G4:G46)/12</f>
+        <v>17571.663333333334</v>
+      </c>
+      <c r="H47" s="109"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="127"/>
+      <c r="N47" s="127"/>
+    </row>
+    <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="204" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="111"/>
+      <c r="G48" s="185">
+        <f>G47*12</f>
+        <v>210859.96000000002</v>
+      </c>
+      <c r="H48" s="113">
+        <f>SUM(H4:H46)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="127"/>
+      <c r="N48" s="127"/>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
+      <c r="N49" s="127"/>
+    </row>
+    <row r="50" spans="2:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="245" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="246"/>
+      <c r="E50" s="246"/>
+      <c r="F50" s="246"/>
+      <c r="G50" s="211">
+        <f>G48*25</f>
+        <v>5271499.0000000009</v>
+      </c>
+      <c r="H50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
+      <c r="N51" s="127"/>
+    </row>
+    <row r="52" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="247" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="248"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="148"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="149"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="127"/>
+    </row>
+    <row r="53" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="249" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="250"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="218">
+        <v>44893</v>
+      </c>
+      <c r="C54" s="219">
+        <v>360</v>
+      </c>
+      <c r="D54" s="127"/>
+      <c r="E54" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="203" cm="1">
+        <f t="array" ref="F54">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E54))/12</f>
+        <v>596.33333333333337</v>
+      </c>
+      <c r="G54" s="136">
+        <f>F54*12</f>
+        <v>7156</v>
+      </c>
+      <c r="H54" s="137">
+        <f>F54/$G$47</f>
+        <v>3.3937215960773211E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="218">
+        <v>44875</v>
+      </c>
+      <c r="C55" s="219">
+        <v>350</v>
+      </c>
+      <c r="D55" s="127"/>
+      <c r="E55" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="203" cm="1">
+        <f t="array" ref="F55">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E55))/12</f>
+        <v>6372.41</v>
+      </c>
+      <c r="G55" s="136">
+        <f t="shared" ref="G55:G64" si="11">F55*12</f>
+        <v>76468.92</v>
+      </c>
+      <c r="H55" s="138">
+        <f t="shared" ref="H55:H64" si="12">F55/$G$47</f>
+        <v>0.36265263447835233</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="218">
+        <v>44873</v>
+      </c>
+      <c r="C56" s="219">
+        <v>451</v>
+      </c>
+      <c r="D56" s="127"/>
+      <c r="E56" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="203" cm="1">
+        <f t="array" ref="F56">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E56))/12</f>
+        <v>695.17</v>
+      </c>
+      <c r="G56" s="136">
+        <f t="shared" si="11"/>
+        <v>8342.0399999999991</v>
+      </c>
+      <c r="H56" s="138">
+        <f t="shared" si="12"/>
+        <v>3.9561991759839085E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="218">
+        <v>44869</v>
+      </c>
+      <c r="C57" s="219">
+        <v>166</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="203" cm="1">
+        <f t="array" ref="F57">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E57))/12</f>
+        <v>218</v>
+      </c>
+      <c r="G57" s="136">
+        <f t="shared" si="11"/>
+        <v>2616</v>
+      </c>
+      <c r="H57" s="138">
+        <f t="shared" si="12"/>
+        <v>1.2406338310981374E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="218">
+        <v>44883</v>
+      </c>
+      <c r="C58" s="215">
+        <v>356</v>
+      </c>
+      <c r="E58" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="203" cm="1">
+        <f t="array" ref="F58">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E58))/12</f>
+        <v>1016.4166666666666</v>
+      </c>
+      <c r="G58" s="136">
+        <f t="shared" si="11"/>
+        <v>12197</v>
+      </c>
+      <c r="H58" s="138">
+        <f t="shared" si="12"/>
+        <v>5.7844078126544268E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="218">
+        <v>44845</v>
+      </c>
+      <c r="C59" s="215">
+        <v>323</v>
+      </c>
+      <c r="E59" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="203" cm="1">
+        <f t="array" ref="F59">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E59))/12</f>
+        <v>364.66666666666669</v>
+      </c>
+      <c r="G59" s="136">
+        <f t="shared" si="11"/>
+        <v>4376</v>
+      </c>
+      <c r="H59" s="138">
+        <f t="shared" si="12"/>
+        <v>2.0753110263323583E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="216" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="217">
+        <f>SUM(C54:C59)</f>
+        <v>2006</v>
+      </c>
+      <c r="E60" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="203" cm="1">
+        <f t="array" ref="F60">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E60))/12</f>
+        <v>247</v>
+      </c>
+      <c r="G60" s="136">
+        <f t="shared" si="11"/>
+        <v>2964</v>
+      </c>
+      <c r="H60" s="138">
+        <f t="shared" si="12"/>
+        <v>1.4056722765194492E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="203" cm="1">
+        <f t="array" ref="F61">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E61))/12</f>
+        <v>2500</v>
+      </c>
+      <c r="G61" s="136">
+        <f t="shared" si="11"/>
+        <v>30000</v>
+      </c>
+      <c r="H61" s="138">
+        <f t="shared" si="12"/>
+        <v>0.14227452191492401</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="247" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="248"/>
+      <c r="E62" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="203" cm="1">
+        <f t="array" ref="F62">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E62))/12</f>
+        <v>627.66666666666663</v>
+      </c>
+      <c r="G62" s="136">
+        <f t="shared" si="11"/>
+        <v>7532</v>
+      </c>
+      <c r="H62" s="138">
+        <f t="shared" si="12"/>
+        <v>3.5720389968773587E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="212" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="213">
+        <v>18.5</v>
+      </c>
+      <c r="E63" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="203" cm="1">
+        <f t="array" ref="F63">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E63))/12</f>
+        <v>934</v>
+      </c>
+      <c r="G63" s="136">
+        <f t="shared" si="11"/>
+        <v>11208</v>
+      </c>
+      <c r="H63" s="138">
+        <f t="shared" si="12"/>
+        <v>5.3153761387415607E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="214" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="215">
+        <v>15</v>
+      </c>
+      <c r="E64" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="203" cm="1">
+        <f t="array" ref="F64">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E64))/12</f>
+        <v>4000</v>
+      </c>
+      <c r="G64" s="136">
+        <f t="shared" si="11"/>
+        <v>48000</v>
+      </c>
+      <c r="H64" s="138">
+        <f t="shared" si="12"/>
+        <v>0.2276392350638784</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="216" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="217">
+        <f>C63*2*C64</f>
+        <v>555</v>
+      </c>
+      <c r="E65" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="107"/>
+      <c r="G65" s="185">
+        <f>SUM(G54:G64)/12</f>
+        <v>17571.663333333334</v>
+      </c>
+      <c r="H65" s="138"/>
+    </row>
+    <row r="66" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E66" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="111"/>
+      <c r="G66" s="112">
+        <f>G65*12</f>
+        <v>210859.96000000002</v>
+      </c>
+      <c r="H66" s="139">
+        <f>SUM(H54:H64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E69" s="196" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="197"/>
+      <c r="G69" s="197"/>
+      <c r="H69" s="198"/>
+    </row>
+    <row r="70" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E70" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="189" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E71" s="99" t="str" cm="1">
+        <f t="array" ref="E71:E75">_xlfn._xlws.FILTER($E$4:$E$45,$D$4:$D$45=E58)</f>
+        <v>Parkeringslicens</v>
+      </c>
+      <c r="F71" s="202">
+        <f>G71/12</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G71" s="230" cm="1">
+        <f t="array" ref="G71:G75">_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E58)</f>
+        <v>1000</v>
+      </c>
+      <c r="H71" s="137">
+        <f>F71/$G$77</f>
+        <v>8.1987373944412564E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E72" s="99" t="str">
+        <v>Ida/Tryg Bilpleje</v>
+      </c>
+      <c r="F72" s="202">
+        <f t="shared" ref="F72:F73" si="13">G72/12</f>
+        <v>79.75</v>
+      </c>
+      <c r="G72" s="230">
+        <v>957</v>
+      </c>
+      <c r="H72" s="137">
+        <f t="shared" ref="H72:H73" si="14">F72/$G$77</f>
+        <v>7.8461916864802819E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E73" s="99" t="str">
+        <v>Årligt Tryg GPS abonnement</v>
+      </c>
+      <c r="F73" s="202">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="230">
+        <v>0</v>
+      </c>
+      <c r="H73" s="137">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E74" s="99" t="str">
+        <v>Benzin (køre til Aabybro)</v>
+      </c>
+      <c r="F74" s="202">
+        <f>G74/12</f>
+        <v>832.5</v>
+      </c>
+      <c r="G74" s="230">
+        <v>9990</v>
+      </c>
+      <c r="H74" s="137">
+        <f>F74/$G$77</f>
+        <v>0.81905386570468153</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E75" s="99" t="str">
+        <v>Servicesyn</v>
+      </c>
+      <c r="F75" s="202">
+        <f>G75/12</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="G75" s="230">
+        <v>250</v>
+      </c>
+      <c r="H75" s="137">
+        <f>F75/$G$77</f>
+        <v>2.0496843486103141E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="107"/>
+      <c r="G77" s="185">
+        <f>SUM(G71:G76)/12</f>
+        <v>1016.4166666666666</v>
+      </c>
+      <c r="H77" s="138"/>
+    </row>
+    <row r="78" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E78" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="111"/>
+      <c r="G78" s="112">
+        <f>G77*12</f>
+        <v>12197</v>
+      </c>
+      <c r="H78" s="139">
+        <f>SUM(H71:H76)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="K23:N23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:H46">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H64">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H75">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:O39">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7D5F1A-C5EA-4E6F-BCCE-8BDC04FC22B9}">
+  <dimension ref="B1:O88"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4979,22 +8805,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="211"/>
-      <c r="K2" s="212" t="s">
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="256"/>
+      <c r="K2" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="264"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="84" t="s">
@@ -5056,7 +8882,7 @@
       </c>
       <c r="H4" s="93">
         <f>G4/$G$48</f>
-        <v>0.31115023623833937</v>
+        <v>0.31946322423997603</v>
       </c>
       <c r="K4" s="94">
         <v>12</v>
@@ -5068,7 +8894,7 @@
         <v>23000</v>
       </c>
       <c r="N4" s="120">
-        <f t="shared" ref="N4:N8" si="1">K4*M4</f>
+        <f t="shared" ref="N4:N9" si="1">K4*M4</f>
         <v>276000</v>
       </c>
       <c r="O4" s="117">
@@ -5096,7 +8922,7 @@
       </c>
       <c r="H5" s="93">
         <f t="shared" ref="H5:H46" si="2">G5/$G$48</f>
-        <v>3.3259683143717278E-3</v>
+        <v>3.4148280723634173E-3</v>
       </c>
       <c r="K5" s="4">
         <v>12</v>
@@ -5137,7 +8963,7 @@
       </c>
       <c r="H6" s="93">
         <f t="shared" si="2"/>
-        <v>2.5891628312794813E-3</v>
+        <v>2.6583373876318118E-3</v>
       </c>
       <c r="K6" s="4">
         <v>12</v>
@@ -5177,7 +9003,7 @@
       </c>
       <c r="H7" s="93">
         <f t="shared" si="2"/>
-        <v>1.2607531575426219E-2</v>
+        <v>1.2944366475453396E-2</v>
       </c>
       <c r="K7" s="4">
         <v>12</v>
@@ -5217,7 +9043,7 @@
       </c>
       <c r="H8" s="93">
         <f t="shared" si="2"/>
-        <v>1.9082607131708069E-2</v>
+        <v>1.9592436357755396E-2</v>
       </c>
       <c r="K8" s="18">
         <v>12</v>
@@ -5257,12 +9083,21 @@
       </c>
       <c r="H9" s="93">
         <f t="shared" si="2"/>
-        <v>8.6739123325945777E-4</v>
-      </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="123"/>
+        <v>8.9056528898888172E-4</v>
+      </c>
+      <c r="K9" s="81">
+        <v>12</v>
+      </c>
+      <c r="L9" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="58">
+        <v>0</v>
+      </c>
+      <c r="N9" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O9" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5288,7 +9123,7 @@
       </c>
       <c r="H10" s="93">
         <f t="shared" si="2"/>
-        <v>1.6460917129181359E-2</v>
+        <v>1.6900702771786503E-2</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="81"/>
@@ -5319,7 +9154,7 @@
       </c>
       <c r="H11" s="93">
         <f t="shared" si="2"/>
-        <v>4.3369561662972888E-3</v>
+        <v>4.4528264449444086E-3</v>
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
@@ -5350,7 +9185,7 @@
       </c>
       <c r="H12" s="93">
         <f t="shared" si="2"/>
-        <v>6.7136081454282027E-3</v>
+        <v>6.8929753367739446E-3</v>
       </c>
       <c r="K12" s="115"/>
       <c r="L12" s="116" t="s">
@@ -5378,12 +9213,12 @@
         <v>79</v>
       </c>
       <c r="G13" s="98">
-        <f t="shared" ref="G13:G15" si="4">C13*F13</f>
+        <f t="shared" ref="G13:G16" si="4">C13*F13</f>
         <v>948</v>
       </c>
       <c r="H13" s="93">
         <f t="shared" si="2"/>
-        <v>4.1114344456498302E-3</v>
+        <v>4.2212794698072995E-3</v>
       </c>
       <c r="K13" s="99"/>
       <c r="L13" s="102" t="s">
@@ -5419,7 +9254,7 @@
       </c>
       <c r="H14" s="93">
         <f t="shared" si="2"/>
-        <v>2.0296954858271313E-3</v>
+        <v>2.0839227762339831E-3</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -5443,22 +9278,33 @@
       </c>
       <c r="H15" s="93">
         <f t="shared" si="2"/>
-        <v>4.1504670511465051E-3</v>
-      </c>
-      <c r="K15" s="207" t="s">
+        <v>4.261354907811799E-3</v>
+      </c>
+      <c r="K15" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="215"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="252"/>
+      <c r="N15" s="253"/>
     </row>
     <row r="16" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="178"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
+      <c r="C16" s="36">
+        <v>1</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="48">
+        <v>0</v>
+      </c>
+      <c r="G16" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5513,11 +9359,11 @@
       <c r="L18" s="14"/>
       <c r="M18" s="68">
         <f>G47</f>
-        <v>19214.704999999998</v>
+        <v>18714.704999999998</v>
       </c>
       <c r="N18" s="69">
         <f t="shared" ref="N18" si="5">M18*12</f>
-        <v>230576.45999999996</v>
+        <v>224576.45999999996</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5537,11 +9383,11 @@
       <c r="L19" s="130"/>
       <c r="M19" s="131">
         <f>M17-M18</f>
-        <v>24365.295000000002</v>
+        <v>24865.295000000002</v>
       </c>
       <c r="N19" s="131">
         <f>N17-N18</f>
-        <v>292383.54000000004</v>
+        <v>298383.54000000004</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.35">
@@ -5566,17 +9412,17 @@
       </c>
       <c r="H20" s="93">
         <f t="shared" si="2"/>
-        <v>3.2902317955614381E-3</v>
+        <v>3.3781367824570756E-3</v>
       </c>
       <c r="K20" s="128" t="s">
         <v>44</v>
       </c>
       <c r="L20" s="128"/>
-      <c r="M20" s="216">
+      <c r="M20" s="257">
         <f>M19/M17*100%</f>
-        <v>0.55909350619550258</v>
-      </c>
-      <c r="N20" s="216"/>
+        <v>0.57056665901789816</v>
+      </c>
+      <c r="N20" s="257"/>
     </row>
     <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="178"/>
@@ -5598,7 +9444,7 @@
       </c>
       <c r="H21" s="93">
         <f t="shared" si="2"/>
-        <v>5.6727386655168535E-3</v>
+        <v>5.8242969899872862E-3</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5621,7 +9467,7 @@
       </c>
       <c r="H22" s="93">
         <f t="shared" si="2"/>
-        <v>2.1684780831486444E-3</v>
+        <v>2.2264132224722043E-3</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -5644,16 +9490,16 @@
       </c>
       <c r="H23" s="93">
         <f t="shared" si="2"/>
-        <v>6.7829994440889597E-3</v>
-      </c>
-      <c r="K23" s="207" t="s">
+        <v>6.9642205598930548E-3</v>
+      </c>
+      <c r="K23" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="252"/>
       <c r="N23" s="132">
         <f>M19</f>
-        <v>24365.295000000002</v>
+        <v>24865.295000000002</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -5676,7 +9522,7 @@
       </c>
       <c r="H24" s="93">
         <f t="shared" si="2"/>
-        <v>1.5248737880701267E-2</v>
+        <v>1.5656137780424541E-2</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="71"/>
@@ -5707,7 +9553,7 @@
       </c>
       <c r="H25" s="93">
         <f t="shared" si="2"/>
-        <v>2.4304302355930008E-2</v>
+        <v>2.4953639397468464E-2</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>53</v>
@@ -5741,7 +9587,7 @@
       </c>
       <c r="H26" s="93">
         <f t="shared" si="2"/>
-        <v>1.0304607851122359E-2</v>
+        <v>1.0579915633187914E-2</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>55</v>
@@ -5749,11 +9595,11 @@
       <c r="L26" s="1"/>
       <c r="M26" s="63">
         <f>N23-M25-M27</f>
-        <v>20365.295000000002</v>
+        <v>20865.295000000002</v>
       </c>
       <c r="N26" s="63">
         <f t="shared" ref="N26:N27" si="7">M26*12</f>
-        <v>244383.54000000004</v>
+        <v>250383.54000000004</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -5828,12 +9674,12 @@
         <v>860</v>
       </c>
       <c r="G30" s="163">
-        <f t="shared" ref="G30:G36" si="8">C30*F30</f>
+        <f t="shared" ref="G30:G35" si="8">C30*F30</f>
         <v>860</v>
       </c>
       <c r="H30" s="93">
         <f t="shared" si="2"/>
-        <v>3.7297823030156682E-3</v>
+        <v>3.8294307426521915E-3</v>
       </c>
       <c r="K30" s="128"/>
       <c r="L30" s="128"/>
@@ -5860,7 +9706,7 @@
       </c>
       <c r="H31" s="93">
         <f t="shared" si="2"/>
-        <v>1.3687433660834244E-2</v>
+        <v>1.4053120260244554E-2</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -5883,14 +9729,14 @@
       </c>
       <c r="H32" s="93">
         <f t="shared" si="2"/>
-        <v>5.6727386655168535E-3</v>
-      </c>
-      <c r="K32" s="204" t="s">
+        <v>5.8242969899872862E-3</v>
+      </c>
+      <c r="K32" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="206"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="259"/>
+      <c r="N32" s="260"/>
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -5913,7 +9759,7 @@
       </c>
       <c r="H33" s="93">
         <f t="shared" si="2"/>
-        <v>5.4211952078716109E-4</v>
+        <v>5.5660330561805107E-4</v>
       </c>
       <c r="K33" s="188"/>
       <c r="L33" s="189" t="s">
@@ -5947,7 +9793,7 @@
       </c>
       <c r="H34" s="93">
         <f t="shared" si="2"/>
-        <v>1.5248737880701267E-2</v>
+        <v>1.5656137780424541E-2</v>
       </c>
       <c r="K34" s="191" t="s">
         <v>95</v>
@@ -5986,7 +9832,7 @@
       </c>
       <c r="H35" s="93">
         <f t="shared" si="2"/>
-        <v>2.4304302355930008E-2</v>
+        <v>2.4953639397468464E-2</v>
       </c>
       <c r="K35" s="192" t="s">
         <v>93</v>
@@ -6049,15 +9895,15 @@
       </c>
       <c r="L37" s="74">
         <f t="shared" ref="L37" si="9">M37/2</f>
-        <v>4627.0625</v>
+        <v>4377.0625</v>
       </c>
       <c r="M37" s="74">
         <f>SUM(G39:G45)/12</f>
-        <v>9254.125</v>
+        <v>8754.125</v>
       </c>
       <c r="N37" s="73">
         <f>M37*12</f>
-        <v>111049.5</v>
+        <v>105049.5</v>
       </c>
       <c r="O37" s="140"/>
     </row>
@@ -6111,7 +9957,7 @@
       </c>
       <c r="H39" s="93">
         <f t="shared" si="2"/>
-        <v>5.2043473995567469E-2</v>
+        <v>5.3433917339332899E-2</v>
       </c>
       <c r="K39" s="193" t="s">
         <v>99</v>
@@ -6150,7 +9996,7 @@
       </c>
       <c r="H40" s="93">
         <f t="shared" si="2"/>
-        <v>0.15613042198670241</v>
+        <v>0.16030175201799871</v>
       </c>
       <c r="K40" s="143" t="s">
         <v>64</v>
@@ -6158,11 +10004,11 @@
       <c r="L40" s="72"/>
       <c r="M40" s="142">
         <f>SUM(M34:M39)</f>
-        <v>23214.705000000002</v>
+        <v>22714.705000000002</v>
       </c>
       <c r="N40" s="144">
         <f>M40*12</f>
-        <v>278576.46000000002</v>
+        <v>272576.46000000002</v>
       </c>
       <c r="O40" s="141"/>
     </row>
@@ -6178,15 +10024,15 @@
         <v>65</v>
       </c>
       <c r="F41" s="101">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G41" s="164">
         <f>C41*F41</f>
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="H41" s="93">
         <f t="shared" si="2"/>
-        <v>0.13010868498891867</v>
+        <v>0.1068678346786658</v>
       </c>
     </row>
     <row r="42" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -6209,7 +10055,7 @@
       </c>
       <c r="H42" s="93">
         <f t="shared" si="2"/>
-        <v>0.13010868498891867</v>
+        <v>0.13358479334833226</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -6232,7 +10078,7 @@
       </c>
       <c r="H43" s="93">
         <f t="shared" si="2"/>
-        <v>3.4695649330378311E-3</v>
+        <v>3.5622611559555269E-3</v>
       </c>
     </row>
     <row r="44" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -6255,7 +10101,7 @@
       </c>
       <c r="H44" s="93">
         <f t="shared" si="2"/>
-        <v>8.6739123325945775E-3</v>
+        <v>8.9056528898888172E-3</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -6279,7 +10125,7 @@
       </c>
       <c r="H45" s="93">
         <f t="shared" si="2"/>
-        <v>1.0820705634911735E-3</v>
+        <v>1.1109801980136299E-3</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6310,7 +10156,7 @@
       <c r="F47" s="107"/>
       <c r="G47" s="185">
         <f>SUM(G4:G46)/12</f>
-        <v>19214.704999999998</v>
+        <v>18714.704999999998</v>
       </c>
       <c r="H47" s="109"/>
       <c r="K47" s="127"/>
@@ -6321,13 +10167,13 @@
     <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
-      <c r="E48" s="223" t="s">
+      <c r="E48" s="204" t="s">
         <v>68</v>
       </c>
       <c r="F48" s="111"/>
       <c r="G48" s="185">
         <f>G47*12</f>
-        <v>230576.45999999996</v>
+        <v>224576.45999999996</v>
       </c>
       <c r="H48" s="113">
         <f>SUM(H4:H46)</f>
@@ -6351,15 +10197,15 @@
       <c r="N49" s="127"/>
     </row>
     <row r="50" spans="2:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="220" t="s">
+      <c r="C50" s="245" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="221"/>
-      <c r="E50" s="221"/>
-      <c r="F50" s="222"/>
+      <c r="D50" s="246"/>
+      <c r="E50" s="246"/>
+      <c r="F50" s="263"/>
       <c r="G50" s="186">
         <f>G48*25</f>
-        <v>5764411.4999999991</v>
+        <v>5614411.4999999991</v>
       </c>
       <c r="H50" s="127"/>
       <c r="K50" s="127"/>
@@ -6438,7 +10284,7 @@
       </c>
       <c r="H54" s="137">
         <f>F54/$G$47</f>
-        <v>1.7156998593872073E-2</v>
+        <v>1.7615381416200081E-2</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6462,7 +10308,7 @@
       </c>
       <c r="H55" s="138">
         <f t="shared" ref="H55:H64" si="13">F55/$G$47</f>
-        <v>0.34424988569952025</v>
+        <v>0.35344719566779176</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6486,7 +10332,7 @@
       </c>
       <c r="H56" s="138">
         <f t="shared" si="13"/>
-        <v>3.617906181749863E-2</v>
+        <v>3.7145656316784049E-2</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6509,7 +10355,7 @@
       </c>
       <c r="H57" s="138">
         <f t="shared" si="13"/>
-        <v>1.1345477331033707E-2</v>
+        <v>1.1648593979974572E-2</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6524,15 +10370,15 @@
       </c>
       <c r="F58" s="203" cm="1">
         <f t="array" ref="F58">SUM(_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E58))/12</f>
-        <v>2683.875</v>
+        <v>2183.875</v>
       </c>
       <c r="G58" s="136">
         <f t="shared" si="12"/>
-        <v>32206.5</v>
+        <v>26206.5</v>
       </c>
       <c r="H58" s="138">
         <f t="shared" si="13"/>
-        <v>0.13967817876985361</v>
+        <v>0.11669299622943563</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6553,7 +10399,7 @@
       </c>
       <c r="H59" s="138">
         <f t="shared" si="13"/>
-        <v>1.8978520183716936E-2</v>
+        <v>1.9485568523076733E-2</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6570,7 +10416,7 @@
       </c>
       <c r="H60" s="138">
         <f t="shared" si="13"/>
-        <v>1.2854738076905164E-2</v>
+        <v>1.3198177582815227E-2</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6587,7 +10433,7 @@
       </c>
       <c r="H61" s="138">
         <f t="shared" si="13"/>
-        <v>0.13010868498891864</v>
+        <v>0.13358479334833226</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6604,7 +10450,7 @@
       </c>
       <c r="H62" s="138">
         <f t="shared" si="13"/>
-        <v>3.2665953844551177E-2</v>
+        <v>3.353868878332128E-2</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6621,7 +10467,7 @@
       </c>
       <c r="H63" s="138">
         <f t="shared" si="13"/>
-        <v>4.8608604711860008E-2</v>
+        <v>4.9907278794936928E-2</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -6638,7 +10484,7 @@
       </c>
       <c r="H64" s="138">
         <f t="shared" si="13"/>
-        <v>0.20817389598226985</v>
+        <v>0.2137356693573316</v>
       </c>
     </row>
     <row r="65" spans="5:8" ht="15" x14ac:dyDescent="0.25">
@@ -6648,7 +10494,7 @@
       <c r="F65" s="107"/>
       <c r="G65" s="108">
         <f>(SUM(G54:G64)/12)</f>
-        <v>19214.704999999998</v>
+        <v>18714.704999999998</v>
       </c>
       <c r="H65" s="138"/>
     </row>
@@ -6659,7 +10505,7 @@
       <c r="F66" s="111"/>
       <c r="G66" s="112">
         <f>G65*12</f>
-        <v>230576.45999999996</v>
+        <v>224576.45999999996</v>
       </c>
       <c r="H66" s="139">
         <f>SUM(H54:H64)</f>
@@ -6691,7 +10537,7 @@
     </row>
     <row r="71" spans="5:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E71" s="99" t="str" cm="1">
-        <f t="array" ref="E71:E74">_xlfn._xlws.FILTER($E$4:$E$45,$D$4:$D$45=E58)</f>
+        <f t="array" ref="E71:E75">_xlfn._xlws.FILTER($E$4:$E$45,$D$4:$D$45=E58)</f>
         <v>Parkeringslicens</v>
       </c>
       <c r="F71" s="202">
@@ -6699,12 +10545,12 @@
         <v>83.333333333333329</v>
       </c>
       <c r="G71" s="202" cm="1">
-        <f t="array" ref="G71:G74">_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E58)</f>
+        <f t="array" ref="G71:G75">_xlfn._xlws.FILTER($G$4:$G$45,$D$4:$D$45=E58)</f>
         <v>1000</v>
       </c>
       <c r="H71" s="137">
         <f>F71/$G$77</f>
-        <v>3.1049632838091687E-2</v>
+        <v>3.8158472134775724E-2</v>
       </c>
     </row>
     <row r="72" spans="5:8" ht="15" x14ac:dyDescent="0.25">
@@ -6712,54 +10558,64 @@
         <v>Ida/Tryg Bilpleje</v>
       </c>
       <c r="F72" s="202">
-        <f t="shared" ref="F72:F74" si="14">G72/12</f>
+        <f t="shared" ref="F72:F73" si="14">G72/12</f>
         <v>79.75</v>
       </c>
       <c r="G72" s="202">
         <v>957</v>
       </c>
       <c r="H72" s="137">
-        <f t="shared" ref="H72:H74" si="15">F72/$G$77</f>
-        <v>2.9714498626053746E-2</v>
+        <f t="shared" ref="H72:H73" si="15">F72/$G$77</f>
+        <v>3.6517657832980367E-2</v>
       </c>
     </row>
     <row r="73" spans="5:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E73" s="99" t="str">
-        <v>Benzin</v>
+        <v>Årligt Tryg GPS abonnement</v>
       </c>
       <c r="F73" s="202">
         <f t="shared" si="14"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G73" s="202">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H73" s="137">
         <f t="shared" si="15"/>
-        <v>0.93148898514275069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="5:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E74" s="99" t="str">
+        <v>Benzin</v>
+      </c>
+      <c r="F74" s="202">
+        <f>G74/12</f>
+        <v>2000</v>
+      </c>
+      <c r="G74" s="202">
+        <v>24000</v>
+      </c>
+      <c r="H74" s="137">
+        <f>F74/$G$77</f>
+        <v>0.91580333123461732</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E75" s="99" t="str">
         <v>Servicesyn</v>
       </c>
-      <c r="F74" s="202">
-        <f t="shared" si="14"/>
+      <c r="F75" s="202">
+        <f>G75/12</f>
         <v>20.791666666666668</v>
       </c>
-      <c r="G74" s="202">
+      <c r="G75" s="99">
         <v>249.5</v>
       </c>
-      <c r="H74" s="137">
-        <f t="shared" si="15"/>
-        <v>7.7468833931038771E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
+      <c r="H75" s="137">
+        <f>F75/$G$77</f>
+        <v>9.5205387976265432E-3</v>
+      </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E76" s="99"/>
@@ -6774,7 +10630,7 @@
       <c r="F77" s="107"/>
       <c r="G77" s="108">
         <f>(SUM(G71:G76)/12)</f>
-        <v>2683.875</v>
+        <v>2183.875</v>
       </c>
       <c r="H77" s="138"/>
     </row>
@@ -6785,11 +10641,35 @@
       <c r="F78" s="111"/>
       <c r="G78" s="112">
         <f>G77*12</f>
-        <v>32206.5</v>
+        <v>26206.5</v>
       </c>
       <c r="H78" s="139">
-        <f>SUM(H67:H76)</f>
+        <f>SUM(H71:H76)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="83">
+        <f>18.5*2</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="83">
+        <f>20/1.5/2</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="83">
+        <f>N84*N83</f>
+        <v>246.66666666666669</v>
+      </c>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="83">
+        <f>N86*2</f>
+        <v>493.33333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -6814,7 +10694,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H64">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H75">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O4:O11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6834,18 +10766,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O11">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="O34:O39">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H64">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6855,20 +10787,14 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H64">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6880,71 +10806,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H74">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H74">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FCCB84-8BE1-41C8-B1B7-D933F06EAB58}">
   <dimension ref="B2:O78"/>
   <sheetViews>
@@ -6972,22 +10840,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="211"/>
-      <c r="K2" s="212" t="s">
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="256"/>
+      <c r="K2" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="264"/>
     </row>
     <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="84" t="s">
@@ -7438,12 +11306,12 @@
         <f t="shared" si="2"/>
         <v>4.1217031704425039E-3</v>
       </c>
-      <c r="K15" s="207" t="s">
+      <c r="K15" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="215"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="252"/>
+      <c r="N15" s="253"/>
     </row>
     <row r="16" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="178"/>
@@ -7565,11 +11433,11 @@
         <v>44</v>
       </c>
       <c r="L20" s="128"/>
-      <c r="M20" s="216">
+      <c r="M20" s="257">
         <f>M19/M17*100%</f>
         <v>0.55601657870582832</v>
       </c>
-      <c r="N20" s="216"/>
+      <c r="N20" s="257"/>
     </row>
     <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="178"/>
@@ -7639,11 +11507,11 @@
         <f t="shared" si="2"/>
         <v>6.7359913882675823E-3</v>
       </c>
-      <c r="K23" s="207" t="s">
+      <c r="K23" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="252"/>
       <c r="N23" s="132">
         <f>M19</f>
         <v>24231.202499999999</v>
@@ -7878,12 +11746,12 @@
         <f t="shared" si="2"/>
         <v>5.6334250229245512E-3</v>
       </c>
-      <c r="K32" s="204" t="s">
+      <c r="K32" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="206"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="259"/>
+      <c r="N32" s="260"/>
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="2:15" ht="15" x14ac:dyDescent="0.25">
@@ -8817,48 +12685,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="0.1"/>
-        <cfvo type="formula" val="0.3"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H64">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H54:H64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -8870,55 +12696,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="0.1"/>
-        <cfvo type="formula" val="0.3"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O39">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H74">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8940,6 +12718,84 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:O39">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8947,7 +12803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E168FD2A-7AA5-4960-BCE4-8301C1682775}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
@@ -8977,29 +12833,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="266" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="266" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="218" t="s">
+      <c r="M2" s="266" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -9704,29 +13560,29 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="217" t="s">
+      <c r="A19" s="265" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="265"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="217" t="s">
+      <c r="G19" s="265" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="265"/>
+      <c r="K19" s="265"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="217" t="s">
+      <c r="M19" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
-      <c r="Q19" s="217"/>
+      <c r="N19" s="265"/>
+      <c r="O19" s="265"/>
+      <c r="P19" s="265"/>
+      <c r="Q19" s="265"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -10012,27 +13868,27 @@
       <c r="P27" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="217" t="s">
+      <c r="A29" s="265" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="G29" s="217" t="s">
+      <c r="B29" s="265"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="265"/>
+      <c r="G29" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="217"/>
-      <c r="M29" s="217" t="s">
+      <c r="H29" s="265"/>
+      <c r="I29" s="265"/>
+      <c r="J29" s="265"/>
+      <c r="K29" s="265"/>
+      <c r="M29" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="N29" s="217"/>
-      <c r="O29" s="217"/>
-      <c r="P29" s="217"/>
-      <c r="Q29" s="217"/>
+      <c r="N29" s="265"/>
+      <c r="O29" s="265"/>
+      <c r="P29" s="265"/>
+      <c r="Q29" s="265"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -10253,30 +14109,6 @@
   </mergeCells>
   <conditionalFormatting sqref="E4:E13">
     <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="0.1"/>
-        <cfvo type="formula" val="0.3"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q13">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="0.1"/>
-        <cfvo type="formula" val="0.3"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K13">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="0.1"/>
@@ -10307,6 +14139,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K21:K23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -10317,6 +14161,18 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q13">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="0.1"/>
@@ -10351,15 +14207,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10384,29 +14240,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="266" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="266" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="218" t="s">
+      <c r="M2" s="266" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -11093,29 +14949,29 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="217" t="s">
+      <c r="A19" s="265" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="265"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="217" t="s">
+      <c r="G19" s="265" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
+      <c r="H19" s="265"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="265"/>
+      <c r="K19" s="265"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="217" t="s">
+      <c r="M19" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
-      <c r="Q19" s="217"/>
+      <c r="N19" s="265"/>
+      <c r="O19" s="265"/>
+      <c r="P19" s="265"/>
+      <c r="Q19" s="265"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -11418,27 +15274,27 @@
       <c r="P27" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="217" t="s">
+      <c r="A29" s="265" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="G29" s="217" t="s">
+      <c r="B29" s="265"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="265"/>
+      <c r="G29" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="217"/>
-      <c r="M29" s="217" t="s">
+      <c r="H29" s="265"/>
+      <c r="I29" s="265"/>
+      <c r="J29" s="265"/>
+      <c r="K29" s="265"/>
+      <c r="M29" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="N29" s="217"/>
-      <c r="O29" s="217"/>
-      <c r="P29" s="217"/>
-      <c r="Q29" s="217"/>
+      <c r="N29" s="265"/>
+      <c r="O29" s="265"/>
+      <c r="P29" s="265"/>
+      <c r="Q29" s="265"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -11655,30 +15511,6 @@
   </mergeCells>
   <conditionalFormatting sqref="E4:E13">
     <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="0.1"/>
-        <cfvo type="formula" val="0.3"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q13">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="0.1"/>
-        <cfvo type="formula" val="0.3"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K13">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="0.1"/>
@@ -11709,6 +15541,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K21:K23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -11719,6 +15563,18 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="0.1"/>
+        <cfvo type="formula" val="0.3"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q13">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="0.1"/>
